--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-AB.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-AB.RS0001.a205.xlsx
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'AA': 300.0 ton, 2.03 COP liquid-cooled, centrifugal compressor chiller</t>
+          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'AB': 350.0 ton, 2.03 COP liquid-cooled, centrifugal compressor chiller</t>
         </is>
       </c>
       <c r="D7" s="4" t="n"/>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>c2a84c29-9241-47cd-a2e5-b1f83f5ed79a</t>
+          <t>660f0087-cab0-41d4-b86b-98701d85e974</t>
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-01T11:35Z</t>
+          <t>2022-12-20T09:13Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>Based on ASHRAE 90.1-2019 Addendum 'bd' curve set 'AA' for Performance Rating Method (PRM)</t>
+          <t>Based on ASHRAE 90.1-2019 Addendum 'bd' curve set 'AB' for Performance Rating Method (PRM)</t>
         </is>
       </c>
       <c r="D13" s="4" t="n"/>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>541181.4218585292</v>
+        <v>608214.9022351246</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
@@ -2135,13 +2135,13 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2150,19 +2150,19 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>157921.5344844233</v>
+        <v>195394.8379318131</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>264393.5102339755</v>
+        <v>321295.94751414</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>422315.0447183988</v>
+        <v>516690.7854459531</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>278.4288747660367</v>
+        <v>278.4867205018107</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>287.3041865028172</v>
+        <v>287.3712046644711</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>15000</v>
@@ -2179,13 +2179,13 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2194,19 +2194,19 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>209325.9082815521</v>
+        <v>266550.5933657873</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>528787.020467951</v>
+        <v>642591.8950282801</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>738112.9287495031</v>
+        <v>909142.4883940674</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>279.8188606431845</v>
+        <v>279.9345521147325</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>288.3334346159627</v>
+        <v>288.4675573684873</v>
       </c>
       <c r="K6" s="5" t="n">
         <v>15000</v>
@@ -2223,13 +2223,13 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2238,19 +2238,19 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>291686.8050130779</v>
+        <v>372034.2874895716</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>793180.5307019264</v>
+        <v>963887.8425424201</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>1084867.335715004</v>
+        <v>1335922.130031992</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>281.2088465203323</v>
+        <v>281.3823837276543</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>289.4635761942988</v>
+        <v>289.6598085693711</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>15000</v>
@@ -2267,13 +2267,13 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B8" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2282,19 +2282,19 @@
         <v>4</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>405004.2246790007</v>
+        <v>511845.9203031661</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1057574.040935902</v>
+        <v>1285183.79005656</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>1462578.265614903</v>
+        <v>1797029.710359726</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>282.59883239748</v>
+        <v>282.8302153405762</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>290.6946112378257</v>
+        <v>290.9479582671225</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>15000</v>
@@ -2311,13 +2311,13 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B9" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2326,19 +2326,19 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>188066.5811872452</v>
+        <v>223501.0825822576</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>253002.1002709028</v>
+        <v>303192.1191353608</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>441068.681458148</v>
+        <v>526693.2017176184</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>278.3689871426398</v>
+        <v>278.4051405900673</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>296.4445255329944</v>
+        <v>296.4784856708934</v>
       </c>
       <c r="K9" s="5" t="n">
         <v>15000</v>
@@ -2355,13 +2355,13 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B10" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2370,19 +2370,19 @@
         <v>2</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>249283.3422177098</v>
+        <v>304892.1190076999</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>506004.2005418055</v>
+        <v>606384.2382707216</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>755287.5427595153</v>
+        <v>911276.3572784215</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>279.6990853963907</v>
+        <v>279.7713922912458</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>297.4722912764596</v>
+        <v>297.5567006390814</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>15000</v>
@@ -2399,13 +2399,13 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B11" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2414,19 +2414,19 @@
         <v>3</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>347365.8002078937</v>
+        <v>425548.9392235376</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>759006.3008127083</v>
+        <v>909576.3574060824</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1106372.101020602</v>
+        <v>1335125.29662962</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>281.0291836501416</v>
+        <v>281.1376439924242</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>298.6206395345684</v>
+        <v>298.7450009170607</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>15000</v>
@@ -2443,13 +2443,13 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B12" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2458,19 +2458,19 @@
         <v>4</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>482313.9551577966</v>
+        <v>585471.5432297708</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1012008.401083611</v>
+        <v>1212768.476541443</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1494322.356241408</v>
+        <v>1798240.019771214</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>282.3592819038925</v>
+        <v>282.5038956936027</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>299.8895703073208</v>
+        <v>300.0433865048314</v>
       </c>
       <c r="K12" s="5" t="n">
         <v>15000</v>
@@ -2487,13 +2487,13 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B13" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>304.075925925926</v>
@@ -2502,19 +2502,19 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>191175.3462706865</v>
+        <v>225612.5190078734</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>234747.7970628369</v>
+        <v>277639.0110634404</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>425923.1433335234</v>
+        <v>503251.5300713138</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>278.2730194933812</v>
+        <v>278.2899925529969</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>305.4735516814918</v>
+        <v>305.4913871308696</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>15000</v>
@@ -2531,13 +2531,13 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B14" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>304.075925925926</v>
@@ -2546,19 +2546,19 @@
         <v>2</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>253404.0283347099</v>
+        <v>307772.4644562241</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>469495.5941256739</v>
+        <v>555278.0221268808</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>722899.6224603837</v>
+        <v>863050.4865831049</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>279.5071500978735</v>
+        <v>279.541096217105</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>306.4480513829554</v>
+        <v>306.5033690804315</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>15000</v>
@@ -2575,13 +2575,13 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B15" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>304.075925925926</v>
@@ -2590,19 +2590,19 @@
         <v>3</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>353107.8021310995</v>
+        <v>429569.1413665319</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>704243.3911885108</v>
+        <v>832917.0331903212</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>1057351.19331961</v>
+        <v>1262486.174556853</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>280.7412807023658</v>
+        <v>280.7921998812129</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>307.545521987074</v>
+        <v>307.6268345572611</v>
       </c>
       <c r="K15" s="5" t="n">
         <v>15000</v>
@@ -2619,13 +2619,13 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B16" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>304.075925925926</v>
@@ -2634,19 +2634,19 @@
         <v>4</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>490286.6676598553</v>
+        <v>591002.549738797</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>938991.1882513477</v>
+        <v>1110556.044253762</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1429277.855911203</v>
+        <v>1701558.593992559</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>281.9754113068581</v>
+        <v>282.043303545321</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>308.7659634938475</v>
+        <v>308.8617835613583</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>15000</v>
@@ -2663,13 +2663,13 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B17" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>313.15</v>
@@ -2678,19 +2678,19 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>169892.1143075016</v>
+        <v>204149.0723418366</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>209630.6006097779</v>
+        <v>244636.6232983787</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>379522.7149172795</v>
+        <v>448785.6956402152</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>278.1409718182609</v>
+        <v>278.1412763905994</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>314.3993916542249</v>
+        <v>314.4163479243712</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>15000</v>
@@ -2707,13 +2707,13 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B18" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>313.15</v>
@@ -2722,19 +2722,19 @@
         <v>2</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>225192.9811434223</v>
+        <v>278492.8043328408</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>419261.2012195559</v>
+        <v>489273.2465967573</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>644454.1823629781</v>
+        <v>767766.0509295982</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>279.2430547476328</v>
+        <v>279.24366389231</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>315.2715480531913</v>
+        <v>315.3164214221676</v>
       </c>
       <c r="K18" s="5" t="n">
         <v>15000</v>
@@ -2751,13 +2751,13 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B19" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>313.15</v>
@@ -2766,19 +2766,19 @@
         <v>3</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>313796.9003471131</v>
+        <v>388702.4625331023</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>628891.8018293338</v>
+        <v>733909.869895136</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>942688.7021764468</v>
+        <v>1122612.332428238</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>280.3451376770048</v>
+        <v>280.3460513940205</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>316.2533383529839</v>
+        <v>316.3176985493398</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>15000</v>
@@ -2795,13 +2795,13 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B20" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>313.15</v>
@@ -2810,19 +2810,19 @@
         <v>4</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>435703.8719185742</v>
+        <v>534778.046942621</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>838522.4024391117</v>
+        <v>978546.4931935146</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>1274226.274357686</v>
+        <v>1513324.540136136</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>281.4472206063768</v>
+        <v>281.4484388957311</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>317.3447625536025</v>
+        <v>317.4201793058878</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>15000</v>
@@ -2839,13 +2839,13 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B21" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2854,19 +2854,19 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>152602.5823224138</v>
+        <v>186552.2727931975</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>286749.7072673088</v>
+        <v>344598.0939718767</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>439352.2895897226</v>
+        <v>531150.3667650742</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>282.4385859979556</v>
+        <v>282.4840029550541</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>287.359714272393</v>
+        <v>287.4115989370889</v>
       </c>
       <c r="K21" s="5" t="n">
         <v>15000</v>
@@ -2883,13 +2883,13 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B22" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2898,19 +2898,19 @@
         <v>2</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>202275.6063955316</v>
+        <v>254487.8848033629</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>573499.4145346177</v>
+        <v>689196.1879437533</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>775775.0209301494</v>
+        <v>943684.0727471162</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>283.9493942181334</v>
+        <v>284.0402281323303</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>288.4561828649985</v>
+        <v>288.5640527056765</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>15000</v>
@@ -2927,13 +2927,13 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B23" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2942,19 +2942,19 @@
         <v>3</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>281862.5073501964</v>
+        <v>355197.9296013811</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>860249.1218019265</v>
+        <v>1033794.28191563</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1142111.629152123</v>
+        <v>1388992.211517011</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>285.4602024383111</v>
+        <v>285.5964533096065</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>289.6501467319364</v>
+        <v>289.808065098522</v>
       </c>
       <c r="K23" s="5" t="n">
         <v>15000</v>
@@ -2971,13 +2971,13 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B24" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2986,19 +2986,19 @@
         <v>4</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>391363.2851864081</v>
+        <v>488682.4071872524</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1146998.829069235</v>
+        <v>1378392.375887507</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1538362.114255643</v>
+        <v>1867074.783074759</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>286.9710106584889</v>
+        <v>287.1526784868827</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>290.9416058732068</v>
+        <v>291.1436361156253</v>
       </c>
       <c r="K24" s="5" t="n">
         <v>15000</v>
@@ -3015,13 +3015,13 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B25" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3030,19 +3030,19 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>192960.9263132337</v>
+        <v>222315.0218485028</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>281389.7007709028</v>
+        <v>331956.3467675146</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>474350.6270841365</v>
+        <v>554271.3686160174</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>282.4103455441042</v>
+        <v>282.4269120841864</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>296.5533861005892</v>
+        <v>296.5558036498925</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>15000</v>
@@ -3059,13 +3059,13 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3074,19 +3074,19 @@
         <v>2</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>255770.8250191259</v>
+        <v>303274.1377155814</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>562779.4015418056</v>
+        <v>663912.6935350292</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>818550.2265609314</v>
+        <v>967186.8312506105</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>283.8929133104306</v>
+        <v>283.9260463905949</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>297.6792146259412</v>
+        <v>297.7134508998342</v>
       </c>
       <c r="K26" s="5" t="n">
         <v>15000</v>
@@ -3103,13 +3103,13 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3118,19 +3118,19 @@
         <v>3</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>356405.8332666638</v>
+        <v>423290.6643137583</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>844169.1023127084</v>
+        <v>995869.0403025438</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>1200574.935579372</v>
+        <v>1419159.704616302</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>285.375481076757</v>
+        <v>285.4251806970036</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>298.9287637696822</v>
+        <v>298.9805992661406</v>
       </c>
       <c r="K27" s="5" t="n">
         <v>15000</v>
@@ -3147,13 +3147,13 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B28" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3162,19 +3162,19 @@
         <v>4</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>494865.9510558477</v>
+        <v>582364.6016430333</v>
       </c>
       <c r="G28" s="5" t="n">
-        <v>1125558.803083611</v>
+        <v>1327825.387070058</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>1620424.754139459</v>
+        <v>1910189.988713092</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>286.8580488430835</v>
+        <v>286.9243150034121</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>300.3020335318124</v>
+        <v>300.3572487488116</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>15000</v>
@@ -3191,13 +3191,13 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B29" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>304.075925925926</v>
@@ -3206,19 +3206,19 @@
         <v>1</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>205726.4346930487</v>
+        <v>232183.2558117404</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>269166.8010295037</v>
+        <v>311865.3198700112</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>474893.2357225524</v>
+        <v>544048.5756817516</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>282.3459463243815</v>
+        <v>282.3361798298815</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>305.6342423212154</v>
+        <v>305.6061341944894</v>
       </c>
       <c r="K29" s="5" t="n">
         <v>15000</v>
@@ -3235,13 +3235,13 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B30" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>304.075925925926</v>
@@ -3250,19 +3250,19 @@
         <v>2</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>272691.5802853692</v>
+        <v>316736.0267102708</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>538333.6020590074</v>
+        <v>623730.6397400225</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>811025.1823443766</v>
+        <v>940466.6664502933</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>283.7641148709853</v>
+        <v>283.7445818819852</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>306.7372269164885</v>
+        <v>306.7211122817714</v>
       </c>
       <c r="K30" s="5" t="n">
         <v>15000</v>
@@ -3279,13 +3279,13 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B31" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>304.075925925926</v>
@@ -3294,19 +3294,19 @@
         <v>3</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>379984.1904921832</v>
+        <v>442079.9088513989</v>
       </c>
       <c r="G31" s="5" t="n">
-        <v>807500.4030885111</v>
+        <v>935595.9596100338</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>1187484.593580694</v>
+        <v>1377675.868461433</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>285.1822834175891</v>
+        <v>285.1529839340889</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>307.9725422011924</v>
+        <v>307.9508207414822</v>
       </c>
       <c r="K31" s="5" t="n">
         <v>15000</v>
@@ -3323,13 +3323,13 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B32" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>304.075925925926</v>
@@ -3338,19 +3338,19 @@
         <v>4</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>527604.2653134906</v>
+        <v>608214.9022351246</v>
       </c>
       <c r="G32" s="5" t="n">
-        <v>1076667.204118015</v>
+        <v>1247461.279480045</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>1604271.469431506</v>
+        <v>1855676.181715169</v>
       </c>
       <c r="I32" s="5" t="n">
-        <v>286.6004519641928</v>
+        <v>286.5613859861926</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>309.3401881753272</v>
+        <v>309.2952595736218</v>
       </c>
       <c r="K32" s="5" t="n">
         <v>15000</v>
@@ -3367,13 +3367,13 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B33" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>313.15</v>
@@ -3382,19 +3382,19 @@
         <v>1</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>192031.5704582017</v>
+        <v>217714.0494367795</v>
       </c>
       <c r="G33" s="5" t="n">
-        <v>250081.0080431114</v>
+        <v>284325.0132793664</v>
       </c>
       <c r="H33" s="5" t="n">
-        <v>442112.5785013131</v>
+        <v>502039.0627161459</v>
       </c>
       <c r="I33" s="5" t="n">
-        <v>282.2453883387876</v>
+        <v>282.2118061921394</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>314.605437959564</v>
+        <v>314.5666140569986</v>
       </c>
       <c r="K33" s="5" t="n">
         <v>15000</v>
@@ -3411,13 +3411,13 @@
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B34" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>313.15</v>
@@ -3426,19 +3426,19 @@
         <v>2</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>254538.958452565</v>
+        <v>296997.6570296769</v>
       </c>
       <c r="G34" s="5" t="n">
-        <v>500162.0160862228</v>
+        <v>568650.0265587328</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>754700.9745387879</v>
+        <v>865647.6835884098</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>283.5629988997974</v>
+        <v>283.4958346065011</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>315.6344813286859</v>
+        <v>315.5926160592866</v>
       </c>
       <c r="K34" s="5" t="n">
         <v>15000</v>
@@ -3455,13 +3455,13 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B35" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>313.15</v>
@@ -3470,19 +3470,19 @@
         <v>3</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>354689.279276991</v>
+        <v>414530.3535958672</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>750243.0241293343</v>
+        <v>852975.0398380993</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>1104932.303406325</v>
+        <v>1267505.393433966</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>284.8806094608072</v>
+        <v>284.7798630208627</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>316.7874455180113</v>
+        <v>316.7265463108502</v>
       </c>
       <c r="K35" s="5" t="n">
         <v>15000</v>
@@ -3499,13 +3499,13 @@
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B36" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>313.15</v>
@@ -3514,19 +3514,19 @@
         <v>4</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>492482.53293148</v>
+        <v>570312.1391353505</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1000324.032172446</v>
+        <v>1137300.053117466</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1492806.565103926</v>
+        <v>1707612.192252816</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>286.1982200218171</v>
+        <v>286.0638914352243</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>318.0643305275404</v>
+        <v>317.9684048116895</v>
       </c>
       <c r="K36" s="5" t="n">
         <v>15000</v>
@@ -3543,13 +3543,13 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B37" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3558,19 +3558,19 @@
         <v>1</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>142365.4003092309</v>
+        <v>175921.073825527</v>
       </c>
       <c r="G37" s="5" t="n">
-        <v>294099.1980561976</v>
+        <v>353473.2722608889</v>
       </c>
       <c r="H37" s="5" t="n">
-        <v>436464.5983654285</v>
+        <v>529394.3460864159</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>286.3690940473181</v>
+        <v>286.4159567501674</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>287.3503027123597</v>
+        <v>287.4066933193914</v>
       </c>
       <c r="K37" s="5" t="n">
         <v>15000</v>
@@ -3587,13 +3587,13 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B38" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3602,19 +3602,19 @@
         <v>2</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>188706.1623665766</v>
+        <v>239985.1864566891</v>
       </c>
       <c r="G38" s="5" t="n">
-        <v>588198.3961123951</v>
+        <v>706946.5445217779</v>
       </c>
       <c r="H38" s="5" t="n">
-        <v>776904.5584789717</v>
+        <v>946931.730978467</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>287.9215214279695</v>
+        <v>288.0152468336682</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>288.459864252524</v>
+        <v>288.5731253606221</v>
       </c>
       <c r="K38" s="5" t="n">
         <v>15000</v>
@@ -3631,13 +3631,13 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B39" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3646,19 +3646,19 @@
         <v>3</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>262954.0606743747</v>
+        <v>334955.9898707247</v>
       </c>
       <c r="G39" s="5" t="n">
-        <v>882297.5941685927</v>
+        <v>1060419.816782667</v>
       </c>
       <c r="H39" s="5" t="n">
-        <v>1145251.654842967</v>
+        <v>1395375.806653392</v>
       </c>
       <c r="I39" s="5" t="n">
-        <v>289.473948808621</v>
+        <v>289.6145369171689</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>289.6603807001831</v>
+        <v>289.8258983038223</v>
       </c>
       <c r="K39" s="5" t="n">
         <v>15000</v>
@@ -3675,13 +3675,13 @@
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B40" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3690,19 +3690,19 @@
         <v>4</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>365109.0952326252</v>
+        <v>460833.484067634</v>
       </c>
       <c r="G40" s="5" t="n">
-        <v>1176396.79222479</v>
+        <v>1413893.089043556</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>1541505.887457415</v>
+        <v>1874726.57311119</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>291.0263761892725</v>
+        <v>291.2138270006697</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>290.9518520553369</v>
+        <v>291.1650121489919</v>
       </c>
       <c r="K40" s="5" t="n">
         <v>15000</v>
@@ -3719,13 +3719,13 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B41" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3734,19 +3734,19 @@
         <v>1</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>190172.5864057578</v>
+        <v>216564.4830037318</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>294770.5950264582</v>
+        <v>346293.6062309438</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>484943.1814322161</v>
+        <v>562858.0892346755</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>286.3726380727585</v>
+        <v>286.3834723458697</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>296.5880328574696</v>
+        <v>296.5798773269759</v>
       </c>
       <c r="K41" s="5" t="n">
         <v>15000</v>
@@ -3763,13 +3763,13 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B42" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3778,19 +3778,19 @@
         <v>2</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>252074.864328042</v>
+        <v>295429.4599468593</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>589541.1900529164</v>
+        <v>692587.2124618875</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>841616.0543809584</v>
+        <v>988016.6724087468</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>287.9286094788504</v>
+        <v>287.9502780250729</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>297.7546597076906</v>
+        <v>297.7718493143174</v>
       </c>
       <c r="K42" s="5" t="n">
         <v>15000</v>
@@ -3807,13 +3807,13 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B43" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3822,19 +3822,19 @@
         <v>3</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>351255.668271387</v>
+        <v>412341.5643045651</v>
       </c>
       <c r="G43" s="5" t="n">
-        <v>884311.7850793747</v>
+        <v>1038880.818692831</v>
       </c>
       <c r="H43" s="5" t="n">
-        <v>1235567.453350762</v>
+        <v>1451222.382997396</v>
       </c>
       <c r="I43" s="5" t="n">
-        <v>289.4845808849423</v>
+        <v>289.5170837042759</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>299.0432193784069</v>
+        <v>299.0704899939347</v>
       </c>
       <c r="K43" s="5" t="n">
         <v>15000</v>
@@ -3851,13 +3851,13 @@
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B44" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3866,19 +3866,19 @@
         <v>4</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>487714.998235793</v>
+        <v>567300.796076849</v>
       </c>
       <c r="G44" s="5" t="n">
-        <v>1179082.380105833</v>
+        <v>1385174.424923775</v>
       </c>
       <c r="H44" s="5" t="n">
-        <v>1666797.378341626</v>
+        <v>1952475.221000624</v>
       </c>
       <c r="I44" s="5" t="n">
-        <v>291.0405522910341</v>
+        <v>291.0838893834791</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>300.4537118696187</v>
+        <v>300.4757993658278</v>
       </c>
       <c r="K44" s="5" t="n">
         <v>15000</v>
@@ -3895,13 +3895,13 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B45" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>304.075925925926</v>
@@ -3910,19 +3910,19 @@
         <v>1</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>211020.5162479439</v>
+        <v>231999.7183835178</v>
       </c>
       <c r="G45" s="5" t="n">
-        <v>288579.0987517257</v>
+        <v>331664.6605078573</v>
       </c>
       <c r="H45" s="5" t="n">
-        <v>499599.6149996695</v>
+        <v>563664.3788913751</v>
       </c>
       <c r="I45" s="5" t="n">
-        <v>286.3399557383366</v>
+        <v>286.3172836700546</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>305.7153139242615</v>
+        <v>305.661306224355</v>
       </c>
       <c r="K45" s="5" t="n">
         <v>15000</v>
@@ -3939,13 +3939,13 @@
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B46" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>304.075925925926</v>
@@ -3954,19 +3954,19 @@
         <v>2</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>279708.9160376656</v>
+        <v>316485.6515677369</v>
       </c>
       <c r="G46" s="5" t="n">
-        <v>577158.1975034514</v>
+        <v>663329.3210157147</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>856867.1135411169</v>
+        <v>979814.9725834515</v>
       </c>
       <c r="I46" s="5" t="n">
-        <v>287.8632448100065</v>
+        <v>287.8179006734425</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>306.8876527966696</v>
+        <v>306.8317845748171</v>
       </c>
       <c r="K46" s="5" t="n">
         <v>15000</v>
@@ -3983,13 +3983,13 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B47" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>304.075925925926</v>
@@ -3998,19 +3998,19 @@
         <v>3</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>389762.5512411941</v>
+        <v>441730.4512246815</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>865737.2962551771</v>
+        <v>994993.981523572</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>1255499.847496371</v>
+        <v>1436724.432748253</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>289.3865338816765</v>
+        <v>289.3185176768304</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>308.1957277033933</v>
+        <v>308.1169026050461</v>
       </c>
       <c r="K47" s="5" t="n">
         <v>15000</v>
@@ -4027,13 +4027,13 @@
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B48" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>304.075925925926</v>
@@ -4042,19 +4042,19 @@
         <v>4</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>541181.4218585292</v>
+        <v>607734.1173543517</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1154316.395006903</v>
+        <v>1326658.642031429</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1695497.816865432</v>
+        <v>1934392.759385781</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>290.9098229533464</v>
+        <v>290.8191346802184</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>309.6395386444328</v>
+        <v>309.5166603150421</v>
       </c>
       <c r="K48" s="5" t="n">
         <v>15000</v>
@@ -4071,13 +4071,13 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B49" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>313.15</v>
@@ -4086,19 +4086,19 @@
         <v>1</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>204529.8312557203</v>
+        <v>222921.0043394476</v>
       </c>
       <c r="G49" s="5" t="n">
-        <v>275524.709232</v>
+        <v>309586.4350916296</v>
       </c>
       <c r="H49" s="5" t="n">
-        <v>480054.5404877203</v>
+        <v>532507.4394310772</v>
       </c>
       <c r="I49" s="5" t="n">
-        <v>286.2710470440523</v>
+        <v>286.2173907227219</v>
       </c>
       <c r="J49" s="5" t="n">
-        <v>314.7303431860169</v>
+        <v>314.6525873087906</v>
       </c>
       <c r="K49" s="5" t="n">
         <v>15000</v>
@@ -4115,13 +4115,13 @@
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B50" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>313.15</v>
@@ -4130,19 +4130,19 @@
         <v>2</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>271105.4755011842</v>
+        <v>304100.7971823324</v>
       </c>
       <c r="G50" s="5" t="n">
-        <v>551049.418464</v>
+        <v>619172.8701832592</v>
       </c>
       <c r="H50" s="5" t="n">
-        <v>822154.8939651842</v>
+        <v>923273.6673655916</v>
       </c>
       <c r="I50" s="5" t="n">
-        <v>287.7254274214379</v>
+        <v>287.6181147787772</v>
       </c>
       <c r="J50" s="5" t="n">
-        <v>315.8565401427268</v>
+        <v>315.7552204953348</v>
       </c>
       <c r="K50" s="5" t="n">
         <v>15000</v>
@@ -4159,13 +4159,13 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B51" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>313.15</v>
@@ -4174,19 +4174,19 @@
         <v>3</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>377774.0205198517</v>
+        <v>424444.4627796546</v>
       </c>
       <c r="G51" s="5" t="n">
-        <v>826574.127696</v>
+        <v>928759.3052748889</v>
       </c>
       <c r="H51" s="5" t="n">
-        <v>1204348.148215852</v>
+        <v>1353203.768054544</v>
       </c>
       <c r="I51" s="5" t="n">
-        <v>289.1798077988236</v>
+        <v>289.0188388348324</v>
       </c>
       <c r="J51" s="5" t="n">
-        <v>317.1147232326794</v>
+        <v>316.9683631955616</v>
       </c>
       <c r="K51" s="5" t="n">
         <v>15000</v>
@@ -4203,13 +4203,13 @@
     </row>
     <row r="52">
       <c r="A52" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B52" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>313.15</v>
@@ -4218,19 +4218,19 @@
         <v>4</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>524535.466311723</v>
+        <v>583952.0011314143</v>
       </c>
       <c r="G52" s="5" t="n">
-        <v>1102098.836928</v>
+        <v>1238345.740366518</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>1626634.303239723</v>
+        <v>1822297.741497933</v>
       </c>
       <c r="I52" s="5" t="n">
-        <v>290.6341881762092</v>
+        <v>290.4195628908877</v>
       </c>
       <c r="J52" s="5" t="n">
-        <v>318.5048924558748</v>
+        <v>318.292015409471</v>
       </c>
       <c r="K52" s="5" t="n">
         <v>15000</v>
@@ -4247,13 +4247,13 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B53" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4262,19 +4262,19 @@
         <v>1</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>129750.8295237399</v>
+        <v>166006.7293359229</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>286441.9826006418</v>
+        <v>347921.4823811768</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>416192.8121243818</v>
+        <v>513928.2117170996</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>290.220068515395</v>
+        <v>290.2823343781353</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>287.2842329291415</v>
+        <v>287.3634871411302</v>
       </c>
       <c r="K53" s="5" t="n">
         <v>15000</v>
@@ -4291,13 +4291,13 @@
     </row>
     <row r="54">
       <c r="A54" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B54" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4306,19 +4306,19 @@
         <v>2</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>171985.4757554971</v>
+        <v>226460.3951443463</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>572883.9652012837</v>
+        <v>695842.9647623536</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>744869.4409567808</v>
+        <v>922303.3599066999</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>291.7345814752344</v>
+        <v>291.8591132007149</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>288.3554554330499</v>
+        <v>288.504323566625</v>
       </c>
       <c r="K54" s="5" t="n">
         <v>15000</v>
@@ -4335,13 +4335,13 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B55" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4350,19 +4350,19 @@
         <v>3</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>239654.4906629517</v>
+        <v>316078.9502971245</v>
       </c>
       <c r="G55" s="5" t="n">
-        <v>859325.9478019255</v>
+        <v>1043764.44714353</v>
       </c>
       <c r="H55" s="5" t="n">
-        <v>1098980.438464877</v>
+        <v>1359843.397440655</v>
       </c>
       <c r="I55" s="5" t="n">
-        <v>293.2490944350739</v>
+        <v>293.4358920232946</v>
       </c>
       <c r="J55" s="5" t="n">
-        <v>289.5095736031178</v>
+        <v>289.7266349992476</v>
       </c>
       <c r="K55" s="5" t="n">
         <v>15000</v>
@@ -4379,13 +4379,13 @@
     </row>
     <row r="56">
       <c r="A56" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B56" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4394,19 +4394,19 @@
         <v>4</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>332757.8742461039</v>
+        <v>434862.3947942575</v>
       </c>
       <c r="G56" s="5" t="n">
-        <v>1145767.930402567</v>
+        <v>1391685.929524707</v>
       </c>
       <c r="H56" s="5" t="n">
-        <v>1478525.804648671</v>
+        <v>1826548.324318964</v>
       </c>
       <c r="I56" s="5" t="n">
-        <v>294.7636073949133</v>
+        <v>295.0126708458743</v>
       </c>
       <c r="J56" s="5" t="n">
-        <v>290.7465874393451</v>
+        <v>291.030421438998</v>
       </c>
       <c r="K56" s="5" t="n">
         <v>15000</v>
@@ -4423,13 +4423,13 @@
     </row>
     <row r="57">
       <c r="A57" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B57" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4438,19 +4438,19 @@
         <v>1</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>182211.638632222</v>
+        <v>209162.4693801894</v>
       </c>
       <c r="G57" s="5" t="n">
-        <v>293144.7830375692</v>
+        <v>346203.8975256487</v>
       </c>
       <c r="H57" s="5" t="n">
-        <v>475356.4216697912</v>
+        <v>555366.366905838</v>
       </c>
       <c r="I57" s="5" t="n">
-        <v>290.2555084255533</v>
+        <v>290.2745502901633</v>
       </c>
       <c r="J57" s="5" t="n">
-        <v>296.5566759133516</v>
+        <v>296.5588735803591</v>
       </c>
       <c r="K57" s="5" t="n">
         <v>15000</v>
@@ -4467,13 +4467,13 @@
     </row>
     <row r="58">
       <c r="A58" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B58" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4482,19 +4482,19 @@
         <v>2</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>241522.5819625121</v>
+        <v>285331.8998253102</v>
       </c>
       <c r="G58" s="5" t="n">
-        <v>586289.5660751384</v>
+        <v>692407.7950512974</v>
       </c>
       <c r="H58" s="5" t="n">
-        <v>827812.1480376505</v>
+        <v>977739.6948766075</v>
       </c>
       <c r="I58" s="5" t="n">
-        <v>291.8054612955511</v>
+        <v>291.8435450247711</v>
       </c>
       <c r="J58" s="5" t="n">
-        <v>297.7095090696707</v>
+        <v>297.7430368433533</v>
       </c>
       <c r="K58" s="5" t="n">
         <v>15000</v>
@@ -4511,13 +4511,13 @@
     </row>
     <row r="59">
       <c r="A59" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B59" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4526,19 +4526,19 @@
         <v>3</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>336551.5088385409</v>
+        <v>398248.0350508206</v>
       </c>
       <c r="G59" s="5" t="n">
-        <v>879434.3491127077</v>
+        <v>1038611.692576946</v>
       </c>
       <c r="H59" s="5" t="n">
-        <v>1215985.857951249</v>
+        <v>1436859.727627767</v>
       </c>
       <c r="I59" s="5" t="n">
-        <v>293.3554141655488</v>
+        <v>293.4125397593788</v>
       </c>
       <c r="J59" s="5" t="n">
-        <v>298.9791707313249</v>
+        <v>299.0302229417288</v>
       </c>
       <c r="K59" s="5" t="n">
         <v>15000</v>
@@ -4555,13 +4555,13 @@
     </row>
     <row r="60">
       <c r="A60" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B60" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D60" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4570,19 +4570,19 @@
         <v>4</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>467298.4192603084</v>
+        <v>547910.8750567207</v>
       </c>
       <c r="G60" s="5" t="n">
-        <v>1172579.132150277</v>
+        <v>1384815.590102595</v>
       </c>
       <c r="H60" s="5" t="n">
-        <v>1639877.551410585</v>
+        <v>1932726.465159316</v>
       </c>
       <c r="I60" s="5" t="n">
-        <v>294.9053670355466</v>
+        <v>294.9815344939866</v>
       </c>
       <c r="J60" s="5" t="n">
-        <v>300.3656608983143</v>
+        <v>300.4204318754858</v>
       </c>
       <c r="K60" s="5" t="n">
         <v>15000</v>
@@ -4599,13 +4599,13 @@
     </row>
     <row r="61">
       <c r="A61" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B61" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>304.075925925926</v>
@@ -4614,19 +4614,19 @@
         <v>1</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>209536.9041913155</v>
+        <v>228382.425080574</v>
       </c>
       <c r="G61" s="5" t="n">
-        <v>292984.6902295034</v>
+        <v>337037.0329769793</v>
       </c>
       <c r="H61" s="5" t="n">
-        <v>502521.5944208188</v>
+        <v>565419.4580575533</v>
       </c>
       <c r="I61" s="5" t="n">
-        <v>290.2546619622298</v>
+        <v>290.2330060952178</v>
       </c>
       <c r="J61" s="5" t="n">
-        <v>305.7249021181884</v>
+        <v>305.6662426156482</v>
       </c>
       <c r="K61" s="5" t="n">
         <v>15000</v>
@@ -4643,13 +4643,13 @@
     </row>
     <row r="62">
       <c r="A62" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B62" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>304.075925925926</v>
@@ -4658,19 +4658,19 @@
         <v>2</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>277742.3796668971</v>
+        <v>311551.070457594</v>
       </c>
       <c r="G62" s="5" t="n">
-        <v>585969.3804590068</v>
+        <v>674074.0659539585</v>
       </c>
       <c r="H62" s="5" t="n">
-        <v>863711.7601259039</v>
+        <v>985625.1364115526</v>
       </c>
       <c r="I62" s="5" t="n">
-        <v>291.803768368904</v>
+        <v>291.7604566348799</v>
       </c>
       <c r="J62" s="5" t="n">
-        <v>306.9101128449303</v>
+        <v>306.8481264257636</v>
       </c>
       <c r="K62" s="5" t="n">
         <v>15000</v>
@@ -4687,13 +4687,13 @@
     </row>
     <row r="63">
       <c r="A63" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B63" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>304.075925925926</v>
@@ -4702,19 +4702,19 @@
         <v>3</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>387022.2659337491</v>
+        <v>434843.0781965819</v>
       </c>
       <c r="G63" s="5" t="n">
-        <v>878954.0706885101</v>
+        <v>1011111.098930938</v>
       </c>
       <c r="H63" s="5" t="n">
-        <v>1265976.336622259</v>
+        <v>1445954.17712752</v>
       </c>
       <c r="I63" s="5" t="n">
-        <v>293.3528747755782</v>
+        <v>293.2879071745421</v>
       </c>
       <c r="J63" s="5" t="n">
-        <v>308.2301052930111</v>
+        <v>308.1428624766406</v>
       </c>
       <c r="K63" s="5" t="n">
         <v>15000</v>
@@ -4731,13 +4731,13 @@
     </row>
     <row r="64">
       <c r="A64" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B64" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>304.075925925926</v>
@@ -4746,19 +4746,19 @@
         <v>4</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>537376.562991872</v>
+        <v>598258.4482975374</v>
       </c>
       <c r="G64" s="5" t="n">
-        <v>1171938.760918014</v>
+        <v>1348148.131907917</v>
       </c>
       <c r="H64" s="5" t="n">
-        <v>1709315.323909885</v>
+        <v>1946406.580205454</v>
       </c>
       <c r="I64" s="5" t="n">
-        <v>294.9019811822525</v>
+        <v>294.8153577142043</v>
       </c>
       <c r="J64" s="5" t="n">
-        <v>309.6848794624308</v>
+        <v>309.5504507682792</v>
       </c>
       <c r="K64" s="5" t="n">
         <v>15000</v>
@@ -4775,13 +4775,13 @@
     </row>
     <row r="65">
       <c r="A65" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B65" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>313.15</v>
@@ -4790,19 +4790,19 @@
         <v>1</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>209835.4460445401</v>
+        <v>223497.9704323325</v>
       </c>
       <c r="G65" s="5" t="n">
-        <v>285961.7041764444</v>
+        <v>320420.8887351687</v>
       </c>
       <c r="H65" s="5" t="n">
-        <v>495797.1502209845</v>
+        <v>543918.8591675012</v>
       </c>
       <c r="I65" s="5" t="n">
-        <v>290.2175291254244</v>
+        <v>290.1577017932985</v>
       </c>
       <c r="J65" s="5" t="n">
-        <v>314.782167976585</v>
+        <v>314.6847871490211</v>
       </c>
       <c r="K65" s="5" t="n">
         <v>15000</v>
@@ -4819,13 +4819,13 @@
     </row>
     <row r="66">
       <c r="A66" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B66" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>313.15</v>
@@ -4834,19 +4834,19 @@
         <v>2</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>278138.0986218219</v>
+        <v>304887.873524974</v>
       </c>
       <c r="G66" s="5" t="n">
-        <v>571923.4083528888</v>
+        <v>640841.7774703373</v>
       </c>
       <c r="H66" s="5" t="n">
-        <v>850061.5069747106</v>
+        <v>945729.6509953113</v>
       </c>
       <c r="I66" s="5" t="n">
-        <v>291.7295026952932</v>
+        <v>291.6098480310415</v>
       </c>
       <c r="J66" s="5" t="n">
-        <v>315.9484089242815</v>
+        <v>315.818585011039</v>
       </c>
       <c r="K66" s="5" t="n">
         <v>15000</v>
@@ -4863,13 +4863,13 @@
     </row>
     <row r="67">
       <c r="A67" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B67" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D67" s="5" t="n">
         <v>313.15</v>
@@ -4878,19 +4878,19 @@
         <v>3</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>387573.6835704513</v>
+        <v>425543.0136500057</v>
       </c>
       <c r="G67" s="5" t="n">
-        <v>857885.1125293332</v>
+        <v>961262.6662055061</v>
       </c>
       <c r="H67" s="5" t="n">
-        <v>1245458.796099785</v>
+        <v>1386805.679855512</v>
       </c>
       <c r="I67" s="5" t="n">
-        <v>293.241476265162</v>
+        <v>293.0619942687844</v>
       </c>
       <c r="J67" s="5" t="n">
-        <v>317.250059797125</v>
+        <v>317.0631784084292</v>
       </c>
       <c r="K67" s="5" t="n">
         <v>15000</v>
@@ -4907,13 +4907,13 @@
     </row>
     <row r="68">
       <c r="A68" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B68" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>0.07325163403057448</v>
+        <v>0.08546023970233692</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>313.15</v>
@@ -4922,19 +4922,19 @@
         <v>4</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>538142.2008904284</v>
+        <v>585463.3908074276</v>
       </c>
       <c r="G68" s="5" t="n">
-        <v>1143846.816705778</v>
+        <v>1281683.554940675</v>
       </c>
       <c r="H68" s="5" t="n">
-        <v>1681989.017596206</v>
+        <v>1867146.945748102</v>
       </c>
       <c r="I68" s="5" t="n">
-        <v>294.7534498350308</v>
+        <v>294.5141405065274</v>
       </c>
       <c r="J68" s="5" t="n">
-        <v>318.6871205951156</v>
+        <v>318.4185673411917</v>
       </c>
       <c r="K68" s="5" t="n">
         <v>15000</v>

--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-AB.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-AB.RS0001.a205.xlsx
@@ -12,6 +12,8 @@
     <sheet name="liquid_components0" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="performance_map_cooling" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="performance_map_standby" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="performance_map_evaporator_liqu" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="performance_map_condenser_liqui" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -349,22 +351,37 @@
     </comment>
     <comment ref="B29" authorId="0" shapeId="0">
       <text>
-        <t>Maximum input power at which the chiller operates reliably and continuously</t>
-      </text>
-    </comment>
-    <comment ref="B30" authorId="0" shapeId="0">
-      <text>
         <t>Cycling degradation coefficient (C~D~) as described in AHRI 550/590 or AHRI 551/591</t>
       </text>
     </comment>
+    <comment ref="A30" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing cooling performance over a range of conditions</t>
+      </text>
+    </comment>
     <comment ref="A31" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing cooling performance over a range of conditions</t>
+        <t>Data group describing standby performance</t>
       </text>
     </comment>
     <comment ref="A32" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing standby performance</t>
+        <t>Data group describing the liquid pressure differential through the evaporator</t>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing the liquid pressure differential through the condenser</t>
+      </text>
+    </comment>
+    <comment ref="A34" authorId="0" shapeId="0">
+      <text>
+        <t>Specifies the range the performance data can be scaled to represent different capacity equipment</t>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="0" shapeId="0">
+      <text>
+        <t>Minimum scaling factor</t>
       </text>
     </comment>
   </commentList>
@@ -469,32 +486,17 @@
     </comment>
     <comment ref="I3" authorId="0" shapeId="0">
       <text>
-        <t>Entering evaporator liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
       </text>
     </comment>
     <comment ref="J3" authorId="0" shapeId="0">
       <text>
-        <t>Leaving condenser liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
       </text>
     </comment>
     <comment ref="K3" authorId="0" shapeId="0">
       <text>
-        <t>Pressure difference across the evaporator</t>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
-      <text>
-        <t>Pressure difference across the condenser</t>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
+        <t>The operation state at the operating conditions</t>
       </text>
     </comment>
   </commentList>
@@ -525,6 +527,76 @@
     <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Total power consumed in standby operation</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Chilled liquid (evaporator) flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Leaving evaporator liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the evaporator</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Condenser liquid flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Entering condenser liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the condenser</t>
       </text>
     </comment>
   </commentList>
@@ -820,7 +892,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ32"/>
+  <dimension ref="A1:AZ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,7 +1101,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1048,7 +1120,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'AB': 350.0 ton, 2.03 COP liquid-cooled, centrifugal compressor chiller</t>
+          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'AB': 300.0+ ton, 6.10 COP, 6.40 IPLV liquid-cooled, centrifugal compressor chiller</t>
         </is>
       </c>
       <c r="D7" s="4" t="n"/>
@@ -1067,7 +1139,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>660f0087-cab0-41d4-b86b-98701d85e974</t>
+          <t>7b69b8c6-f30f-4099-a6e4-d17663e83e1c</t>
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
@@ -1086,7 +1158,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-20T09:13Z</t>
+          <t>2024-02-22T13:52Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>
@@ -1104,7 +1176,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4" t="n"/>
       <c r="E10" s="6" t="inlineStr">
@@ -1409,34 +1481,36 @@
       <c r="A29" s="4" t="n"/>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>maximum_power</t>
+          <t>cycling_degradation_coefficient</t>
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>608214.9022351246</v>
+        <v>0</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E29" s="6" t="n"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>cycling_degradation_coefficient</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="n"/>
       <c r="E30" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -1446,13 +1520,13 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_cooling</t>
+          <t>performance.performance_map_standby</t>
         </is>
       </c>
       <c r="B31" s="4" t="n"/>
       <c r="C31" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_cooling</t>
+          <t>$performance_map_standby</t>
         </is>
       </c>
       <c r="D31" s="4" t="n"/>
@@ -1465,13 +1539,13 @@
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_standby</t>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
         </is>
       </c>
       <c r="B32" s="4" t="n"/>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_standby</t>
+          <t>$performance_map_evaporator_liqu</t>
         </is>
       </c>
       <c r="D32" s="4" t="n"/>
@@ -1481,32 +1555,81 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="n"/>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_condenser_liqui</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="n"/>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>performance.scaling</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="5" t="n"/>
+      <c r="D34" s="4" t="n"/>
+      <c r="E34" s="6" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n"/>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    minimum</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="6" t="n"/>
+    </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C17" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation sqref="C18" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C18" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation sqref="C22" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C22" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C25" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C25" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C28" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C28" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C21" r:id="rId1"/>
     <hyperlink ref="C24" r:id="rId2"/>
-    <hyperlink ref="C31" r:id="rId3"/>
-    <hyperlink ref="C32" r:id="rId4"/>
+    <hyperlink ref="C30" r:id="rId3"/>
+    <hyperlink ref="C31" r:id="rId4"/>
+    <hyperlink ref="C32" r:id="rId5"/>
+    <hyperlink ref="C33" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
@@ -1667,7 +1790,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1830,7 +1953,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1985,9 +2108,6 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -2032,32 +2152,17 @@
       </c>
       <c r="I3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_entering_temperature</t>
+          <t>oil_cooler_heat</t>
         </is>
       </c>
       <c r="J3" s="9" t="inlineStr">
         <is>
-          <t>condenser_liquid_leaving_temperature</t>
+          <t>auxiliary_heat</t>
         </is>
       </c>
       <c r="K3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="L3" s="9" t="inlineStr">
-        <is>
-          <t>condenser_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="M3" s="9" t="inlineStr">
-        <is>
-          <t>oil_cooler_heat</t>
-        </is>
-      </c>
-      <c r="N3" s="9" t="inlineStr">
-        <is>
-          <t>auxiliary_heat</t>
+          <t>operation_state</t>
         </is>
       </c>
     </row>
@@ -2104,32 +2209,17 @@
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2231,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2150,31 +2240,24 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>195394.8379318131</v>
+        <v>64962.43590566226</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>321295.94751414</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>516690.7854459531</v>
+        <v>386258.3834198023</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>278.4867205018107</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>287.3712046644711</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -2185,7 +2268,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2194,31 +2277,24 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>266550.5933657873</v>
+        <v>88619.41298154398</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>642591.8950282801</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>909142.4883940674</v>
+        <v>731211.308009824</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>279.9345521147325</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>288.4675573684873</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -2229,7 +2305,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2238,31 +2314,24 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>372034.2874895716</v>
+        <v>123689.3144750529</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>963887.8425424201</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>1335922.130031992</v>
+        <v>1087577.157017473</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>281.3823837276543</v>
+        <v>0</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>289.6598085693711</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -2273,7 +2342,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2282,31 +2351,24 @@
         <v>4</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>511845.9203031661</v>
+        <v>170172.140386189</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>1285183.79005656</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>1797029.710359726</v>
+        <v>1455355.930442749</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>282.8302153405762</v>
+        <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>290.9479582671225</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -2317,7 +2379,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2326,31 +2388,24 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>223501.0825822576</v>
+        <v>74306.84917665426</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>303192.1191353608</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>526693.2017176184</v>
+        <v>377498.9683120151</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>278.4051405900673</v>
+        <v>0</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>296.4784856708934</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -2361,7 +2416,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2370,31 +2425,24 @@
         <v>2</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>304892.1190076999</v>
+        <v>101366.7246731008</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>606384.2382707216</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>911276.3572784215</v>
+        <v>707750.9629438225</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>279.7713922912458</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>297.5567006390814</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -2405,7 +2453,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2414,31 +2462,24 @@
         <v>3</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>425548.9392235376</v>
+        <v>141481.1976695044</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>909576.3574060824</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1335125.29662962</v>
+        <v>1051057.555075587</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>281.1376439924242</v>
+        <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>298.7450009170607</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -2449,7 +2490,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2458,31 +2499,24 @@
         <v>4</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>585471.5432297708</v>
+        <v>194650.268165865</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>1212768.476541443</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1798240.019771214</v>
+        <v>1407418.744707308</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>282.5038956936027</v>
+        <v>0</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>300.0433865048314</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -2493,7 +2527,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>304.075925925926</v>
@@ -2502,31 +2536,24 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>225612.5190078734</v>
+        <v>75008.83319485956</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>277639.0110634404</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>503251.5300713138</v>
+        <v>352647.8442583</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>278.2899925529969</v>
+        <v>0</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>305.4913871308696</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2537,7 +2564,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>304.075925925926</v>
@@ -2546,31 +2573,24 @@
         <v>2</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>307772.4644562241</v>
+        <v>102324.345962212</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>555278.0221268808</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>863050.4865831049</v>
+        <v>657602.3680890928</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>279.541096217105</v>
+        <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>306.5033690804315</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2581,7 +2601,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>304.075925925926</v>
@@ -2590,31 +2610,24 @@
         <v>3</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>429569.1413665319</v>
+        <v>142817.7842795008</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>832917.0331903212</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>1262486.174556853</v>
+        <v>975734.817469822</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>280.7921998812129</v>
+        <v>0</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>307.6268345572611</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2625,7 +2638,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>304.075925925926</v>
@@ -2634,31 +2647,24 @@
         <v>4</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>591002.549738797</v>
+        <v>196489.1481467262</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>1110556.044253762</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1701558.593992559</v>
+        <v>1307045.192400488</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>282.043303545321</v>
+        <v>0</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>308.8617835613583</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2669,7 +2675,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>313.15</v>
@@ -2678,31 +2684,24 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>204149.0723418366</v>
+        <v>67872.93445200947</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>244636.6232983787</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>448785.6956402152</v>
+        <v>312509.5577503882</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>278.1412763905994</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>314.4163479243712</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2713,7 +2712,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>313.15</v>
@@ -2722,31 +2721,24 @@
         <v>2</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>278492.8043328408</v>
+        <v>92589.81016670322</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>489273.2465967573</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>767766.0509295982</v>
+        <v>581863.0567634605</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>279.24366389231</v>
+        <v>0</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>315.3164214221676</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -2757,7 +2749,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>313.15</v>
@@ -2766,31 +2758,24 @@
         <v>3</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>388702.4625331023</v>
+        <v>129230.9411853122</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>733909.869895136</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>1122612.332428238</v>
+        <v>863140.8110804482</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>280.3460513940205</v>
+        <v>0</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>316.3176985493398</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -2801,7 +2786,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>313.15</v>
@@ -2810,31 +2795,24 @@
         <v>4</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>534778.046942621</v>
+        <v>177796.3275078365</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>978546.4931935146</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>1513324.540136136</v>
+        <v>1156342.820701351</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>281.4484388957311</v>
+        <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>317.4201793058878</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2845,7 +2823,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2854,31 +2832,24 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>186552.2727931975</v>
+        <v>62022.57026161992</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>344598.0939718767</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>531150.3667650742</v>
+        <v>406620.6642334966</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>282.4840029550541</v>
+        <v>0</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>287.4115989370889</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -2889,7 +2860,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2898,31 +2869,24 @@
         <v>2</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>254487.8848033629</v>
+        <v>84608.95426047666</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>689196.1879437533</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>943684.0727471162</v>
+        <v>773805.14220423</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>284.0402281323303</v>
+        <v>0</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>288.5640527056765</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -2933,7 +2897,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2942,31 +2906,24 @@
         <v>3</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>355197.9296013811</v>
+        <v>118091.7724326268</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>1033794.28191563</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1388992.211517011</v>
+        <v>1151886.054348257</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>285.5964533096065</v>
+        <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>289.808065098522</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -2977,7 +2934,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2986,31 +2943,24 @@
         <v>4</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>488682.4071872524</v>
+        <v>162471.0247780703</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>1378392.375887507</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1867074.783074759</v>
+        <v>1540863.400665577</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>287.1526784868827</v>
+        <v>0</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>291.1436361156253</v>
-      </c>
-      <c r="K24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -3021,7 +2971,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3030,31 +2980,24 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>222315.0218485028</v>
+        <v>73912.52251371725</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>331956.3467675146</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>554271.3686160174</v>
+        <v>405868.8692812318</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>282.4269120841864</v>
+        <v>0</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>296.5558036498925</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -3065,7 +3008,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3074,31 +3017,24 @@
         <v>2</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>303274.1377155814</v>
+        <v>100828.7984561222</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>663912.6935350292</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>967186.8312506105</v>
+        <v>764741.4919911514</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>283.9260463905949</v>
+        <v>0</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>297.7134508998342</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -3109,7 +3045,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3118,31 +3054,24 @@
         <v>3</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>423290.6643137583</v>
+        <v>140730.3946255924</v>
       </c>
       <c r="G27" s="5" t="n">
         <v>995869.0403025438</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>1419159.704616302</v>
+        <v>1136599.434928136</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>285.4251806970036</v>
+        <v>0</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>298.9805992661406</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -3153,7 +3082,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3162,31 +3091,24 @@
         <v>4</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>582364.6016430333</v>
+        <v>193617.3110221277</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>1327825.387070058</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>1910189.988713092</v>
+        <v>1521442.698092186</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>286.9243150034121</v>
+        <v>0</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>300.3572487488116</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -3197,7 +3119,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>304.075925925926</v>
@@ -3206,31 +3128,24 @@
         <v>1</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>232183.2558117404</v>
+        <v>77193.38972149178</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>311865.3198700112</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>544048.5756817516</v>
+        <v>389058.709591503</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>282.3361798298815</v>
+        <v>0</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>305.6061341944894</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -3241,7 +3156,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>304.075925925926</v>
@@ -3250,31 +3165,24 @@
         <v>2</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>316736.0267102708</v>
+        <v>105304.4392163548</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>623730.6397400225</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>940466.6664502933</v>
+        <v>729035.0789563772</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>283.7445818819852</v>
+        <v>0</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>306.7211122817714</v>
-      </c>
-      <c r="K30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -3285,7 +3193,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>304.075925925926</v>
@@ -3294,31 +3202,24 @@
         <v>3</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>442079.9088513989</v>
+        <v>146977.208036386</v>
       </c>
       <c r="G31" s="5" t="n">
         <v>935595.9596100338</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>1377675.868461433</v>
+        <v>1082573.16764642</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>285.1529839340889</v>
+        <v>0</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>307.9508207414822</v>
-      </c>
-      <c r="K31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -3329,7 +3230,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>304.075925925926</v>
@@ -3338,31 +3239,24 @@
         <v>4</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>608214.9022351246</v>
+        <v>202211.6961815855</v>
       </c>
       <c r="G32" s="5" t="n">
         <v>1247461.279480045</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>1855676.181715169</v>
+        <v>1449672.975661631</v>
       </c>
       <c r="I32" s="5" t="n">
-        <v>286.5613859861926</v>
+        <v>0</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>309.2952595736218</v>
-      </c>
-      <c r="K32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K32" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -3373,7 +3267,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>313.15</v>
@@ -3382,31 +3276,24 @@
         <v>1</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>217714.0494367795</v>
+        <v>72382.84865659827</v>
       </c>
       <c r="G33" s="5" t="n">
         <v>284325.0132793664</v>
       </c>
       <c r="H33" s="5" t="n">
-        <v>502039.0627161459</v>
+        <v>356707.8619359647</v>
       </c>
       <c r="I33" s="5" t="n">
-        <v>282.2118061921394</v>
+        <v>0</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>314.5666140569986</v>
-      </c>
-      <c r="K33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K33" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -3417,7 +3304,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>313.15</v>
@@ -3426,31 +3313,24 @@
         <v>2</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>296997.6570296769</v>
+        <v>98742.07252934271</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>568650.0265587328</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>865647.6835884098</v>
+        <v>667392.0990880756</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>283.4958346065011</v>
+        <v>0</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>315.5926160592866</v>
-      </c>
-      <c r="K34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K34" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -3461,7 +3341,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>313.15</v>
@@ -3470,31 +3350,24 @@
         <v>3</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>414530.3535958672</v>
+        <v>137817.8759042775</v>
       </c>
       <c r="G35" s="5" t="n">
         <v>852975.0398380993</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>1267505.393433966</v>
+        <v>990792.9157423768</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>284.7798630208627</v>
+        <v>0</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>316.7265463108502</v>
-      </c>
-      <c r="K35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K35" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -3505,7 +3378,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>313.15</v>
@@ -3514,31 +3387,24 @@
         <v>4</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>570312.1391353505</v>
+        <v>189610.2587814028</v>
       </c>
       <c r="G36" s="5" t="n">
         <v>1137300.053117466</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1707612.192252816</v>
+        <v>1326910.311898869</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>286.0638914352243</v>
+        <v>0</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>317.9684048116895</v>
-      </c>
-      <c r="K36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K36" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -3549,7 +3415,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3558,31 +3424,24 @@
         <v>1</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>175921.073825527</v>
+        <v>58488.04197598198</v>
       </c>
       <c r="G37" s="5" t="n">
         <v>353473.2722608889</v>
       </c>
       <c r="H37" s="5" t="n">
-        <v>529394.3460864159</v>
+        <v>411961.3142368709</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>286.4159567501674</v>
+        <v>0</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>287.4066933193914</v>
-      </c>
-      <c r="K37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -3593,7 +3452,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3602,31 +3461,24 @@
         <v>2</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>239985.1864566891</v>
+        <v>79787.27820302766</v>
       </c>
       <c r="G38" s="5" t="n">
         <v>706946.5445217779</v>
       </c>
       <c r="H38" s="5" t="n">
-        <v>946931.730978467</v>
+        <v>786733.8227248056</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>288.0152468336682</v>
+        <v>0</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>288.5731253606221</v>
-      </c>
-      <c r="K38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K38" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -3637,7 +3489,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3646,31 +3498,24 @@
         <v>3</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>334955.9898707247</v>
+        <v>111361.9850632289</v>
       </c>
       <c r="G39" s="5" t="n">
         <v>1060419.816782667</v>
       </c>
       <c r="H39" s="5" t="n">
-        <v>1395375.806653392</v>
+        <v>1171781.801845896</v>
       </c>
       <c r="I39" s="5" t="n">
-        <v>289.6145369171689</v>
+        <v>0</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>289.8258983038223</v>
-      </c>
-      <c r="K39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K39" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -3681,7 +3526,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3690,31 +3535,24 @@
         <v>4</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>460833.484067634</v>
+        <v>153212.1625565859</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>1413893.089043556</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>1874726.57311119</v>
+        <v>1567105.251600142</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>291.2138270006697</v>
+        <v>0</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>291.1650121489919</v>
-      </c>
-      <c r="K40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -3725,7 +3563,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3734,31 +3572,24 @@
         <v>1</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>216564.4830037318</v>
+        <v>72000.65516307196</v>
       </c>
       <c r="G41" s="5" t="n">
         <v>346293.6062309438</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>562858.0892346755</v>
+        <v>418294.2613940157</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>286.3834723458697</v>
+        <v>0</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>296.5798773269759</v>
-      </c>
-      <c r="K41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K41" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -3769,7 +3600,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3778,31 +3609,24 @@
         <v>2</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>295429.4599468593</v>
+        <v>98220.6979446388</v>
       </c>
       <c r="G42" s="5" t="n">
         <v>692587.2124618875</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>988016.6724087468</v>
+        <v>790807.9104065263</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>287.9502780250729</v>
+        <v>0</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>297.7718493143174</v>
-      </c>
-      <c r="K42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K42" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -3813,7 +3637,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3822,31 +3646,24 @@
         <v>3</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>412341.5643045651</v>
+        <v>137090.1745711603</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>1038880.818692831</v>
       </c>
       <c r="H43" s="5" t="n">
-        <v>1451222.382997396</v>
+        <v>1175970.993263992</v>
       </c>
       <c r="I43" s="5" t="n">
-        <v>289.5170837042759</v>
+        <v>0</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>299.0704899939347</v>
-      </c>
-      <c r="K43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K43" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -3857,7 +3674,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3866,31 +3683,24 @@
         <v>4</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>567300.796076849</v>
+        <v>188609.0850426363</v>
       </c>
       <c r="G44" s="5" t="n">
         <v>1385174.424923775</v>
       </c>
       <c r="H44" s="5" t="n">
-        <v>1952475.221000624</v>
+        <v>1573783.509966411</v>
       </c>
       <c r="I44" s="5" t="n">
-        <v>291.0838893834791</v>
+        <v>0</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>300.4757993658278</v>
-      </c>
-      <c r="K44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M44" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K44" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -3901,7 +3711,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>304.075925925926</v>
@@ -3910,31 +3720,24 @@
         <v>1</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>231999.7183835178</v>
+        <v>77132.36948910794</v>
       </c>
       <c r="G45" s="5" t="n">
         <v>331664.6605078573</v>
       </c>
       <c r="H45" s="5" t="n">
-        <v>563664.3788913751</v>
+        <v>408797.0299969653</v>
       </c>
       <c r="I45" s="5" t="n">
-        <v>286.3172836700546</v>
+        <v>0</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>305.661306224355</v>
-      </c>
-      <c r="K45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K45" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -3945,7 +3748,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>304.075925925926</v>
@@ -3954,31 +3757,24 @@
         <v>2</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>316485.6515677369</v>
+        <v>105221.19761529</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>663329.3210157147</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>979814.9725834515</v>
+        <v>768550.5186310047</v>
       </c>
       <c r="I46" s="5" t="n">
-        <v>287.8179006734425</v>
+        <v>0</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>306.8317845748171</v>
-      </c>
-      <c r="K46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K46" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -3989,7 +3785,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>304.075925925926</v>
@@ -3998,31 +3794,24 @@
         <v>3</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>441730.4512246815</v>
+        <v>146861.0247281796</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>994993.981523572</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>1436724.432748253</v>
+        <v>1141855.006251752</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>289.3185176768304</v>
+        <v>0</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>308.1169026050461</v>
-      </c>
-      <c r="K47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K47" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -4033,7 +3822,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>304.075925925926</v>
@@ -4042,31 +3831,24 @@
         <v>4</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>607734.1173543517</v>
+        <v>202051.8508277767</v>
       </c>
       <c r="G48" s="5" t="n">
         <v>1326658.642031429</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1934392.759385781</v>
+        <v>1528710.492859206</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>290.8191346802184</v>
+        <v>0</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>309.5166603150421</v>
-      </c>
-      <c r="K48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M48" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K48" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -4077,7 +3859,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>313.15</v>
@@ -4086,31 +3868,24 @@
         <v>1</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>222921.0043394476</v>
+        <v>74113.99200566817</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>309586.4350916296</v>
       </c>
       <c r="H49" s="5" t="n">
-        <v>532507.4394310772</v>
+        <v>383700.4270972978</v>
       </c>
       <c r="I49" s="5" t="n">
-        <v>286.2173907227219</v>
+        <v>0</v>
       </c>
       <c r="J49" s="5" t="n">
-        <v>314.6525873087906</v>
-      </c>
-      <c r="K49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M49" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K49" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -4121,7 +3896,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>313.15</v>
@@ -4130,31 +3905,24 @@
         <v>2</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>304100.7971823324</v>
+        <v>101103.6358734923</v>
       </c>
       <c r="G50" s="5" t="n">
         <v>619172.8701832592</v>
       </c>
       <c r="H50" s="5" t="n">
-        <v>923273.6673655916</v>
+        <v>720276.5060567516</v>
       </c>
       <c r="I50" s="5" t="n">
-        <v>287.6181147787772</v>
+        <v>0</v>
       </c>
       <c r="J50" s="5" t="n">
-        <v>315.7552204953348</v>
-      </c>
-      <c r="K50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M50" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K50" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -4165,7 +3933,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>313.15</v>
@@ -4174,31 +3942,24 @@
         <v>3</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>424444.4627796546</v>
+        <v>141113.9951325566</v>
       </c>
       <c r="G51" s="5" t="n">
         <v>928759.3052748889</v>
       </c>
       <c r="H51" s="5" t="n">
-        <v>1353203.768054544</v>
+        <v>1069873.300407446</v>
       </c>
       <c r="I51" s="5" t="n">
-        <v>289.0188388348324</v>
+        <v>0</v>
       </c>
       <c r="J51" s="5" t="n">
-        <v>316.9683631955616</v>
-      </c>
-      <c r="K51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M51" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K51" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -4209,7 +3970,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>313.15</v>
@@ -4218,31 +3979,24 @@
         <v>4</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>583952.0011314143</v>
+        <v>194145.0697828613</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>1238345.740366518</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>1822297.741497933</v>
+        <v>1432490.81014938</v>
       </c>
       <c r="I52" s="5" t="n">
-        <v>290.4195628908877</v>
+        <v>0</v>
       </c>
       <c r="J52" s="5" t="n">
-        <v>318.292015409471</v>
-      </c>
-      <c r="K52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M52" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -4253,7 +4007,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4262,31 +4016,24 @@
         <v>1</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>166006.7293359229</v>
+        <v>55191.84451616309</v>
       </c>
       <c r="G53" s="5" t="n">
         <v>347921.4823811768</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>513928.2117170996</v>
+        <v>403113.3268973399</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>290.2823343781353</v>
+        <v>0</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>287.3634871411302</v>
-      </c>
-      <c r="K53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M53" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K53" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -4297,7 +4044,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4306,31 +4053,24 @@
         <v>2</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>226460.3951443463</v>
+        <v>75290.72446565547</v>
       </c>
       <c r="G54" s="5" t="n">
         <v>695842.9647623536</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>922303.3599066999</v>
+        <v>771133.6892280091</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>291.8591132007149</v>
+        <v>0</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>288.504323566625</v>
-      </c>
-      <c r="K54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M54" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K54" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -4341,7 +4081,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4350,31 +4090,24 @@
         <v>3</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>316078.9502971245</v>
+        <v>105085.9826551377</v>
       </c>
       <c r="G55" s="5" t="n">
         <v>1043764.44714353</v>
       </c>
       <c r="H55" s="5" t="n">
-        <v>1359843.397440655</v>
+        <v>1148850.429798668</v>
       </c>
       <c r="I55" s="5" t="n">
-        <v>293.4358920232946</v>
+        <v>0</v>
       </c>
       <c r="J55" s="5" t="n">
-        <v>289.7266349992476</v>
-      </c>
-      <c r="K55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K55" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -4385,7 +4118,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4394,31 +4127,24 @@
         <v>4</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>434862.3947942575</v>
+        <v>144577.6190846098</v>
       </c>
       <c r="G56" s="5" t="n">
         <v>1391685.929524707</v>
       </c>
       <c r="H56" s="5" t="n">
-        <v>1826548.324318964</v>
+        <v>1536263.548609317</v>
       </c>
       <c r="I56" s="5" t="n">
-        <v>295.0126708458743</v>
+        <v>0</v>
       </c>
       <c r="J56" s="5" t="n">
-        <v>291.030421438998</v>
-      </c>
-      <c r="K56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M56" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K56" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -4429,7 +4155,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4438,31 +4164,24 @@
         <v>1</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>209162.4693801894</v>
+        <v>69539.72609922427</v>
       </c>
       <c r="G57" s="5" t="n">
         <v>346203.8975256487</v>
       </c>
       <c r="H57" s="5" t="n">
-        <v>555366.366905838</v>
+        <v>415743.623624873</v>
       </c>
       <c r="I57" s="5" t="n">
-        <v>290.2745502901633</v>
+        <v>0</v>
       </c>
       <c r="J57" s="5" t="n">
-        <v>296.5588735803591</v>
-      </c>
-      <c r="K57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M57" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K57" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -4473,7 +4192,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4482,31 +4201,24 @@
         <v>2</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>285331.8998253102</v>
+        <v>94863.58723924433</v>
       </c>
       <c r="G58" s="5" t="n">
         <v>692407.7950512974</v>
       </c>
       <c r="H58" s="5" t="n">
-        <v>977739.6948766075</v>
+        <v>787271.3822905418</v>
       </c>
       <c r="I58" s="5" t="n">
-        <v>291.8435450247711</v>
+        <v>0</v>
       </c>
       <c r="J58" s="5" t="n">
-        <v>297.7430368433533</v>
-      </c>
-      <c r="K58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M58" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K58" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -4517,7 +4229,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4526,31 +4238,24 @@
         <v>3</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>398248.0350508206</v>
+        <v>132404.5339446129</v>
       </c>
       <c r="G59" s="5" t="n">
         <v>1038611.692576946</v>
       </c>
       <c r="H59" s="5" t="n">
-        <v>1436859.727627767</v>
+        <v>1171016.226521559</v>
       </c>
       <c r="I59" s="5" t="n">
-        <v>293.4125397593788</v>
+        <v>0</v>
       </c>
       <c r="J59" s="5" t="n">
-        <v>299.0302229417288</v>
-      </c>
-      <c r="K59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M59" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K59" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -4561,7 +4266,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D60" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4570,31 +4275,24 @@
         <v>4</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>547910.8750567207</v>
+        <v>182162.5662153299</v>
       </c>
       <c r="G60" s="5" t="n">
         <v>1384815.590102595</v>
       </c>
       <c r="H60" s="5" t="n">
-        <v>1932726.465159316</v>
+        <v>1566978.156317925</v>
       </c>
       <c r="I60" s="5" t="n">
-        <v>294.9815344939866</v>
+        <v>0</v>
       </c>
       <c r="J60" s="5" t="n">
-        <v>300.4204318754858</v>
-      </c>
-      <c r="K60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M60" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K60" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -4605,7 +4303,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>304.075925925926</v>
@@ -4614,31 +4312,24 @@
         <v>1</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>228382.425080574</v>
+        <v>75929.73697930505</v>
       </c>
       <c r="G61" s="5" t="n">
         <v>337037.0329769793</v>
       </c>
       <c r="H61" s="5" t="n">
-        <v>565419.4580575533</v>
+        <v>412966.7699562843</v>
       </c>
       <c r="I61" s="5" t="n">
-        <v>290.2330060952178</v>
+        <v>0</v>
       </c>
       <c r="J61" s="5" t="n">
-        <v>305.6662426156482</v>
-      </c>
-      <c r="K61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M61" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K61" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -4649,7 +4340,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>304.075925925926</v>
@@ -4658,31 +4349,24 @@
         <v>2</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>311551.070457594</v>
+        <v>103580.6097037464</v>
       </c>
       <c r="G62" s="5" t="n">
         <v>674074.0659539585</v>
       </c>
       <c r="H62" s="5" t="n">
-        <v>985625.1364115526</v>
+        <v>777654.6756577049</v>
       </c>
       <c r="I62" s="5" t="n">
-        <v>291.7604566348799</v>
+        <v>0</v>
       </c>
       <c r="J62" s="5" t="n">
-        <v>306.8481264257636</v>
-      </c>
-      <c r="K62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M62" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K62" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -4693,7 +4377,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>304.075925925926</v>
@@ -4702,31 +4386,24 @@
         <v>3</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>434843.0781965819</v>
+        <v>144571.1969434126</v>
       </c>
       <c r="G63" s="5" t="n">
         <v>1011111.098930938</v>
       </c>
       <c r="H63" s="5" t="n">
-        <v>1445954.17712752</v>
+        <v>1155682.29587435</v>
       </c>
       <c r="I63" s="5" t="n">
-        <v>293.2879071745421</v>
+        <v>0</v>
       </c>
       <c r="J63" s="5" t="n">
-        <v>308.1428624766406</v>
-      </c>
-      <c r="K63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M63" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K63" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -4737,7 +4414,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>304.075925925926</v>
@@ -4746,31 +4423,24 @@
         <v>4</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>598258.4482975374</v>
+        <v>198901.4986983034</v>
       </c>
       <c r="G64" s="5" t="n">
         <v>1348148.131907917</v>
       </c>
       <c r="H64" s="5" t="n">
-        <v>1946406.580205454</v>
+        <v>1547049.630606221</v>
       </c>
       <c r="I64" s="5" t="n">
-        <v>294.8153577142043</v>
+        <v>0</v>
       </c>
       <c r="J64" s="5" t="n">
-        <v>309.5504507682792</v>
-      </c>
-      <c r="K64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M64" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K64" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -4781,7 +4451,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>313.15</v>
@@ -4790,31 +4460,24 @@
         <v>1</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>223497.9704323325</v>
+        <v>74305.81448790722</v>
       </c>
       <c r="G65" s="5" t="n">
         <v>320420.8887351687</v>
       </c>
       <c r="H65" s="5" t="n">
-        <v>543918.8591675012</v>
+        <v>394726.7032230759</v>
       </c>
       <c r="I65" s="5" t="n">
-        <v>290.1577017932985</v>
+        <v>0</v>
       </c>
       <c r="J65" s="5" t="n">
-        <v>314.6847871490211</v>
-      </c>
-      <c r="K65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M65" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K65" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -4825,7 +4488,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>313.15</v>
@@ -4834,31 +4497,24 @@
         <v>2</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>304887.873524974</v>
+        <v>101365.3131880156</v>
       </c>
       <c r="G66" s="5" t="n">
         <v>640841.7774703373</v>
       </c>
       <c r="H66" s="5" t="n">
-        <v>945729.6509953113</v>
+        <v>742207.0906583529</v>
       </c>
       <c r="I66" s="5" t="n">
-        <v>291.6098480310415</v>
+        <v>0</v>
       </c>
       <c r="J66" s="5" t="n">
-        <v>315.818585011039</v>
-      </c>
-      <c r="K66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M66" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K66" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -4869,7 +4525,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D67" s="5" t="n">
         <v>313.15</v>
@@ -4878,31 +4534,24 @@
         <v>3</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>425543.0136500057</v>
+        <v>141479.2276088066</v>
       </c>
       <c r="G67" s="5" t="n">
         <v>961262.6662055061</v>
       </c>
       <c r="H67" s="5" t="n">
-        <v>1386805.679855512</v>
+        <v>1102741.893814313</v>
       </c>
       <c r="I67" s="5" t="n">
-        <v>293.0619942687844</v>
+        <v>0</v>
       </c>
       <c r="J67" s="5" t="n">
-        <v>317.0631784084292</v>
-      </c>
-      <c r="K67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M67" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -4913,7 +4562,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>0.08546023970233692</v>
+        <v>0.06661911431264564</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>313.15</v>
@@ -4922,31 +4571,24 @@
         <v>4</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>585463.3908074276</v>
+        <v>194647.5577502801</v>
       </c>
       <c r="G68" s="5" t="n">
         <v>1281683.554940675</v>
       </c>
       <c r="H68" s="5" t="n">
-        <v>1867146.945748102</v>
+        <v>1476331.112690955</v>
       </c>
       <c r="I68" s="5" t="n">
-        <v>294.5141405065274</v>
+        <v>0</v>
       </c>
       <c r="J68" s="5" t="n">
-        <v>318.4185673411917</v>
-      </c>
-      <c r="K68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M68" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K68" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -5129,4 +4771,450 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_leaving_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.05274050382416204</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>277.0388888888889</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.05274050382416204</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>280.9277777777778</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.05274050382416204</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>284.8166666666667</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.05274050382416204</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>288.7055555555556</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_entering_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>condenser_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.06661911431264564</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>285.9277777777778</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.06661911431264564</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>295.0018518518519</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.06661911431264564</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>304.075925925926</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.06661911431264564</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>313.15</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
 </file>